--- a/Assembly Issuance.xlsx
+++ b/Assembly Issuance.xlsx
@@ -15,9 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
-  <si>
-    <t>CENTRAL NEGROS POWER RELIABILITY, INC.</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
+  <si>
+    <t>PROGEN DIESEL TECH</t>
   </si>
   <si>
     <t>Purok San Jose, Brgy. Calumangan, Bago City</t>
@@ -78,55 +78,6 @@
   </si>
   <si>
     <t>Qty</t>
-  </si>
-  <si>
-    <t>2019-03-28</t>
-  </si>
-  <si>
-    <t>Engine Inventory</t>
-  </si>
-  <si>
-    <t>DG1 Pielstick</t>
-  </si>
-  <si>
-    <t>Rocker Arm Assembly</t>
-  </si>
-  <si>
-    <t>LB1</t>
-  </si>
-  <si>
-    <t>DG2 Pielstick</t>
-  </si>
-  <si>
-    <t>Health and Safety</t>
-  </si>
-  <si>
-    <t>Auto Start/Stop of Deep Well Pump Refill to Raw Water Tank</t>
-  </si>
-  <si>
-    <t>Barring Gear Motor - Unit 2</t>
-  </si>
-  <si>
-    <t>Dowel Pin PF 1-24</t>
-  </si>
-  <si>
-    <t>Main Inventory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auxiliary
-</t>
-  </si>
-  <si>
-    <t>40MVA Power Transformer, 6.6kV Additional Bus Support (Prevention of Bushing Oil Leak and Crack from Bus Movement)</t>
-  </si>
-  <si>
-    <t>Asset Management</t>
-  </si>
-  <si>
-    <t>RB11</t>
-  </si>
-  <si>
-    <t>LB2</t>
   </si>
 </sst>
 </file>
@@ -246,7 +197,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -255,9 +206,6 @@
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -629,7 +577,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AD14"/>
+  <dimension ref="A1:AD8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="N2" sqref="N2"/>
@@ -638,56 +586,56 @@
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" spans="1:30">
-      <c r="A1" s="11"/>
-      <c r="B1" s="12"/>
-      <c r="C1" s="11" t="s">
+      <c r="A1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="5"/>
-      <c r="AC1" s="5"/>
-      <c r="AD1" s="8"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="7"/>
     </row>
     <row r="2" spans="1:30">
-      <c r="A2" s="6"/>
+      <c r="A2" s="5"/>
       <c r="B2"/>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D2"/>
       <c r="E2"/>
       <c r="F2"/>
       <c r="G2"/>
-      <c r="H2" s="14"/>
+      <c r="H2" s="13"/>
       <c r="I2"/>
       <c r="J2"/>
       <c r="K2"/>
       <c r="L2"/>
       <c r="M2"/>
-      <c r="N2" s="15" t="s">
+      <c r="N2" s="14" t="s">
         <v>2</v>
       </c>
       <c r="O2" s="1"/>
@@ -705,56 +653,56 @@
       <c r="AA2"/>
       <c r="AB2"/>
       <c r="AC2"/>
-      <c r="AD2" s="9"/>
+      <c r="AD2" s="8"/>
     </row>
     <row r="3" spans="1:30">
-      <c r="A3" s="7"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="7" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4"/>
-      <c r="AA3" s="4"/>
-      <c r="AB3" s="4"/>
-      <c r="AC3" s="4"/>
-      <c r="AD3" s="10"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="9"/>
     </row>
     <row r="5" spans="1:30">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="G5" s="13" t="s">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="G5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
     </row>
     <row r="7" spans="1:30">
       <c r="A7" s="2" t="s">
@@ -817,461 +765,12 @@
       </c>
     </row>
     <row r="8" spans="1:30">
-      <c r="A8" s="3">
-        <v>1</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N8" s="2"/>
-      <c r="O8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="3"/>
-      <c r="AC8" s="3"/>
-      <c r="AD8" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
-      <c r="A9" s="3">
-        <v>2</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K9" s="3"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
-      <c r="Y9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z9" s="3"/>
-      <c r="AA9" s="3"/>
-      <c r="AB9" s="3"/>
-      <c r="AC9" s="3"/>
-      <c r="AD9" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
-      <c r="A10" s="3">
-        <v>3</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N10" s="2"/>
-      <c r="O10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
-      <c r="Y10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z10" s="3"/>
-      <c r="AA10" s="3"/>
-      <c r="AB10" s="3"/>
-      <c r="AC10" s="3"/>
-      <c r="AD10" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
-      <c r="A11" s="3">
-        <v>4</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N11" s="2"/>
-      <c r="O11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="P11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
-      <c r="Y11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z11" s="3"/>
-      <c r="AA11" s="3"/>
-      <c r="AB11" s="3"/>
-      <c r="AC11" s="3"/>
-      <c r="AD11" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
-      <c r="A12" s="3">
-        <v>5</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N12" s="2"/>
-      <c r="O12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z12" s="3"/>
-      <c r="AA12" s="3"/>
-      <c r="AB12" s="3"/>
-      <c r="AC12" s="3"/>
-      <c r="AD12" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
-      <c r="A13" s="3">
-        <v>6</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z13" s="3"/>
-      <c r="AA13" s="3"/>
-      <c r="AB13" s="3"/>
-      <c r="AC13" s="3"/>
-      <c r="AD13" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14"/>
-      <c r="F14"/>
-      <c r="G14"/>
-      <c r="H14"/>
-      <c r="I14"/>
-      <c r="K14"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="P14"/>
-      <c r="Q14"/>
-      <c r="R14"/>
-      <c r="S14"/>
-      <c r="T14"/>
-      <c r="U14"/>
-      <c r="V14"/>
-      <c r="W14"/>
-      <c r="X14"/>
-      <c r="Y14"/>
-      <c r="Z14"/>
-      <c r="AA14"/>
-      <c r="AB14"/>
-      <c r="AC14"/>
+      <c r="B8"/>
+      <c r="C8"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <protectedRanges>
-    <protectedRange name="pd77db8d4f60dfc97f3ace7f3795a31ae" sqref="A8:AD8" password="C724"/>
-    <protectedRange name="pbd1df2c292b6b41f37b84848985e7913" sqref="A9:AD9" password="C724"/>
-    <protectedRange name="pb78ce1f1010495ad57e48c3bac3390b2" sqref="A10:AD10" password="C724"/>
-    <protectedRange name="pdb3bc525a9e3c1725fab43252b86a562" sqref="A11:AD11" password="C724"/>
-    <protectedRange name="p75da93d999328a7110a8d5c542da82c3" sqref="A12:AD12" password="C724"/>
-    <protectedRange name="p841c2ee68c66233d9a8ce077ae18de80" sqref="A13:AD13" password="C724"/>
-  </protectedRanges>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="R8:T8"/>
-    <mergeCell ref="R9:T9"/>
-    <mergeCell ref="U8:X8"/>
-    <mergeCell ref="U9:X9"/>
-    <mergeCell ref="Y8:AC8"/>
-    <mergeCell ref="Y9:AC9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="R10:T10"/>
-    <mergeCell ref="U10:X10"/>
-    <mergeCell ref="Y10:AC10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="R11:T11"/>
-    <mergeCell ref="U11:X11"/>
-    <mergeCell ref="Y11:AC11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="R12:T12"/>
-    <mergeCell ref="U12:X12"/>
-    <mergeCell ref="Y12:AC12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="R13:T13"/>
-    <mergeCell ref="U13:X13"/>
-    <mergeCell ref="Y13:AC13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="R14:T14"/>
-    <mergeCell ref="U14:X14"/>
-    <mergeCell ref="Y14:AC14"/>
     <mergeCell ref="N2:T2"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>

--- a/Assembly Issuance.xlsx
+++ b/Assembly Issuance.xlsx
@@ -15,15 +15,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
-  <si>
-    <t>PROGEN DIESEL TECH</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
+  <si>
+    <t>PROGEN Dieseltech Services Corp.</t>
   </si>
   <si>
     <t>Purok San Jose, Brgy. Calumangan, Bago City</t>
   </si>
   <si>
     <t>ASSEMBLY ISSUANCE</t>
+  </si>
+  <si>
+    <t>Negros Occidental, Philippines 6101</t>
   </si>
   <si>
     <t>Tel. No. 476 - 7382</t>
@@ -257,11 +260,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1152525" cy="333375"/>
+    <xdr:ext cx="714375" cy="714375"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="1" name="Sample image" descr="Sample image"/>
@@ -656,112 +659,146 @@
       <c r="AD2" s="8"/>
     </row>
     <row r="3" spans="1:30">
-      <c r="A3" s="6"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="6" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3"/>
+      <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="3"/>
-      <c r="AD3" s="9"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3" s="5"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3"/>
+      <c r="Y3"/>
+      <c r="Z3"/>
+      <c r="AA3"/>
+      <c r="AB3"/>
+      <c r="AC3"/>
+      <c r="AD3" s="8"/>
+    </row>
+    <row r="4" spans="1:30">
+      <c r="A4" s="6"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="9"/>
     </row>
     <row r="5" spans="1:30">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="G5" s="12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
     <row r="7" spans="1:30">
       <c r="A7" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L7" s="2"/>
       <c r="M7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
       <c r="U7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
       <c r="Y7" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
       <c r="AC7" s="2"/>
       <c r="AD7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:30">
